--- a/test_results/06_03_137.xlsx
+++ b/test_results/06_03_137.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="81">
   <si>
     <t>LIVING_ROOM</t>
   </si>
@@ -243,7 +243,22 @@
     <t>Impairment</t>
   </si>
   <si>
+    <t>Start (Preliminary)</t>
+  </si>
+  <si>
+    <t>00:00</t>
+  </si>
+  <si>
     <t>ALEX</t>
+  </si>
+  <si>
+    <t>End (Test)</t>
+  </si>
+  <si>
+    <t>01:00</t>
+  </si>
+  <si>
+    <t>Duration</t>
   </si>
   <si>
     <t>MARIA</t>
@@ -322,7 +337,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border/>
     <border>
       <left style="medium">
@@ -374,11 +389,22 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -412,6 +438,18 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4594,6 +4632,12 @@
       <c r="D7" s="11" t="s">
         <v>60</v>
       </c>
+      <c r="E7" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
@@ -4603,10 +4647,16 @@
         <v>59</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>60</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="9">
@@ -4617,10 +4667,16 @@
         <v>17</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>60</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="15">
+        <v>60.0</v>
       </c>
     </row>
     <row r="10">
@@ -4631,7 +4687,7 @@
         <v>64</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>60</v>
@@ -4645,7 +4701,7 @@
         <v>59</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>55</v>
@@ -4659,7 +4715,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>60</v>
@@ -4673,7 +4729,7 @@
         <v>64</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>55</v>

--- a/test_results/06_03_137.xlsx
+++ b/test_results/06_03_137.xlsx
@@ -255,7 +255,7 @@
     <t>End (Test)</t>
   </si>
   <si>
-    <t>01:00</t>
+    <t>00:30</t>
   </si>
   <si>
     <t>Duration</t>
@@ -404,7 +404,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -449,7 +449,10 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4655,7 +4658,7 @@
       <c r="E8" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="15" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4675,8 +4678,8 @@
       <c r="E9" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="15">
-        <v>60.0</v>
+      <c r="F9" s="16">
+        <v>30.0</v>
       </c>
     </row>
     <row r="10">
